--- a/mapOPR.xlsx
+++ b/mapOPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0C0C4E-DFD2-4261-8628-66A4F38DF486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A95A7A-9A0B-4590-A5E6-B8EE5CB4EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA6316C-CE4F-432A-8F2E-D1F7A66B46CD}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -523,6 +523,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -532,71 +589,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,8 +914,8 @@
   </sheetPr>
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,22 +947,22 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
@@ -973,24 +970,24 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
@@ -1029,13 +1026,13 @@
       <c r="I5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1101,22 +1098,22 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
       <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1196,8 +1193,8 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1246,15 +1243,15 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1334,18 +1331,18 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1359,18 +1356,18 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1394,8 +1391,8 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1419,8 +1416,8 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1444,8 +1441,8 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1505,20 +1502,20 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -1530,111 +1527,111 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="41" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="38" t="s">
+      <c r="I27" s="33"/>
+      <c r="J27" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="44" t="s">
+      <c r="K27" s="27"/>
+      <c r="L27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="38" t="s">
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="38" t="s">
+      <c r="P27" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="45" t="s">
+      <c r="Q27" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="38" t="s">
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="U27" s="38"/>
+      <c r="U27" s="27"/>
     </row>
     <row r="28" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="46" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="46" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
       <c r="Q28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="R28" s="45" t="s">
+      <c r="R28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="S28" s="45"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="40"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="29"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="13" t="s">
         <v>33</v>
       </c>
@@ -1647,19 +1644,19 @@
       <c r="G29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48" t="s">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48" t="s">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="13" t="s">
         <v>39</v>
       </c>
@@ -1669,14 +1666,14 @@
       <c r="Q29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R29" s="48" t="s">
+      <c r="R29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48" t="s">
+      <c r="S29" s="25"/>
+      <c r="T29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="48"/>
+      <c r="U29" s="25"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -3171,8 +3168,8 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
       <c r="R87" s="16"/>
-      <c r="S87" s="47"/>
-      <c r="T87" s="47"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
       <c r="U87" s="16"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -3395,15 +3392,28 @@
       <c r="U96" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="S87:T87"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
+  <mergeCells count="44">
+    <mergeCell ref="D2:S2"/>
+    <mergeCell ref="D3:S3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="B27:C28"/>
@@ -3420,27 +3430,13 @@
     <mergeCell ref="T27:U28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="L28:N28"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D2:S2"/>
-    <mergeCell ref="D3:S3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/mapOPR.xlsx
+++ b/mapOPR.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3DDE56-B249-48E4-8B2E-7836D860B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC225EE-F584-4A60-89DA-9F97C82F6558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA6316C-CE4F-432A-8F2E-D1F7A66B46CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>(полное наименование организации)</t>
   </si>
@@ -60,22 +60,7 @@
     <t>1. Количество работающих на рабочем месте:</t>
   </si>
   <si>
-    <t>Всего,</t>
-  </si>
-  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>из них:</t>
-  </si>
-  <si>
-    <t>женщин</t>
-  </si>
-  <si>
-    <t>лиц в возрасте до 18 лет</t>
-  </si>
-  <si>
-    <t>инвалидов, допущенных к выполнению работ</t>
   </si>
   <si>
     <t>2. Идентифицированные опасности и оцененные риски:</t>
@@ -189,13 +174,30 @@
   </si>
   <si>
     <t>Карта      №</t>
+  </si>
+  <si>
+    <t>Перечень видов оборудования, приспособлений, инструмента, которые могут стать источником опасности</t>
+  </si>
+  <si>
+    <t>Перечень расходных материалов, влияющих на здоровье
+Перечень расходных материалов, влияющих на здоровье
+Перечень расходных материалов, влияющих на здоровье
+Перечень расходных материалов, влияющих на здоровье
+Перечень расходных материалов, влияющих на здоровье
+Перечень расходных материалов, влияющих на здоровье</t>
+  </si>
+  <si>
+    <t>Перечень основных функций, связанных с указанными выше видами оборудования и материалов (Личное исполнение/ контроль исполнения работ или технологического процесса/ инспектирование)</t>
+  </si>
+  <si>
+    <t>Всего:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +237,30 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,41 +327,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -389,17 +380,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -408,11 +388,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -426,22 +448,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -466,10 +482,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -478,87 +494,99 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +908,7 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F28"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,35 +940,35 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -966,11 +994,11 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="28" t="s">
+      <c r="G5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="2"/>
@@ -1019,17 +1047,17 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1080,14 +1108,14 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1121,12 +1149,12 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1183,15 +1211,15 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="B18" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1199,17 +1227,17 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="43"/>
+      <c r="B19" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1219,15 +1247,15 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="29"/>
+      <c r="B20" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1235,17 +1263,17 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1255,15 +1283,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="44"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1305,16 +1331,16 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="B25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1322,130 +1348,130 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="H27" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="I27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="J27" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="K27" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="L27" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="M27" s="43"/>
+      <c r="N27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="24" t="s">
+    </row>
+    <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="H28" s="40"/>
+      <c r="I28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="M28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="32" t="s">
+      <c r="N28" s="38"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="27" t="s">
+      <c r="D29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="27" t="s">
+      <c r="E29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="9" t="s">
+      <c r="F29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="H29" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="I29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="J29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="K29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="22" t="s">
+      <c r="L29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="M29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="N29" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1478,7 +1504,7 @@
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1495,19 +1521,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1543,8 +1569,8 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="15" t="s">
-        <v>43</v>
+      <c r="B36" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1560,238 +1586,238 @@
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="17"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="15"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="16"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="18"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="16"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="16"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="18"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="16"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="16"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="14"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="15" t="s">
-        <v>49</v>
+      <c r="B50" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1807,343 +1833,331 @@
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="17"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="16"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52" s="12"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="17"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="16"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="14"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="17"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J58" s="13"/>
-      <c r="K58" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="16"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" s="12"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="14"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="17"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="16"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L61" s="12"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="17"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J64" s="13"/>
-      <c r="K64" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L64" s="14"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="16"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L64" s="12"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="14"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="B19:G19"/>
+  <mergeCells count="23">
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="B27:B28"/>
@@ -2154,6 +2168,19 @@
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/mapOPR.xlsx
+++ b/mapOPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC225EE-F584-4A60-89DA-9F97C82F6558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E33A5-23F0-47BA-832A-C0B35572EEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA6316C-CE4F-432A-8F2E-D1F7A66B46CD}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -510,6 +510,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,6 +549,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,39 +588,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -908,7 +912,7 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,52 +944,52 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+    <row r="4" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1048,16 +1052,16 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1108,12 +1112,12 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="27"/>
       <c r="F12" s="26"/>
       <c r="G12" s="4"/>
@@ -1149,12 +1153,12 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1211,15 +1215,15 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="45"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1229,15 +1233,15 @@
     </row>
     <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="45"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1247,15 +1251,15 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="48"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1265,15 +1269,15 @@
     </row>
     <row r="21" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1283,13 +1287,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="44"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1331,16 +1335,16 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1351,9 +1355,9 @@
       <c r="A26" s="5"/>
       <c r="B26" s="21"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -1365,67 +1369,67 @@
     </row>
     <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="50" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="50" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="43" t="s">
+      <c r="L27" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="43"/>
-      <c r="N27" s="37" t="s">
+      <c r="M27" s="54"/>
+      <c r="N27" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="40"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="40"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="38"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>

--- a/mapOPR.xlsx
+++ b/mapOPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E33A5-23F0-47BA-832A-C0B35572EEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EAD662-2EE9-4BBD-93A4-051FD532E321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA6316C-CE4F-432A-8F2E-D1F7A66B46CD}"/>
   </bookViews>
@@ -179,18 +179,13 @@
     <t>Перечень видов оборудования, приспособлений, инструмента, которые могут стать источником опасности</t>
   </si>
   <si>
-    <t>Перечень расходных материалов, влияющих на здоровье
-Перечень расходных материалов, влияющих на здоровье
-Перечень расходных материалов, влияющих на здоровье
-Перечень расходных материалов, влияющих на здоровье
-Перечень расходных материалов, влияющих на здоровье
-Перечень расходных материалов, влияющих на здоровье</t>
-  </si>
-  <si>
     <t>Перечень основных функций, связанных с указанными выше видами оборудования и материалов (Личное исполнение/ контроль исполнения работ или технологического процесса/ инспектирование)</t>
   </si>
   <si>
     <t>Всего:</t>
+  </si>
+  <si>
+    <t>Перечень расходных материалов, влияющих на здоровье</t>
   </si>
 </sst>
 </file>
@@ -513,18 +508,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,55 +563,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -911,8 +906,8 @@
   </sheetPr>
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,52 +939,52 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+    <row r="4" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1052,16 +1047,16 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1153,12 +1148,12 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1215,15 +1210,15 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="30"/>
+      <c r="B18" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1233,15 +1228,15 @@
     </row>
     <row r="19" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="30"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1251,15 +1246,15 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1269,15 +1264,15 @@
     </row>
     <row r="21" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="32"/>
+      <c r="B21" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1287,12 +1282,12 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="29"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1369,67 +1364,67 @@
     </row>
     <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="35" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="35" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="54" t="s">
+      <c r="L27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="54"/>
-      <c r="N27" s="48" t="s">
+      <c r="M27" s="39"/>
+      <c r="N27" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="51"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="49"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -2162,6 +2157,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="B27:B28"/>
@@ -2172,19 +2180,6 @@
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/mapOPR.xlsx
+++ b/mapOPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992CF8DD-BA59-4CC9-AE14-76DC4B3D5C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC71656-BA60-471C-8FC7-738967553158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA6316C-CE4F-432A-8F2E-D1F7A66B46CD}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>(полное наименование организации)</t>
-  </si>
-  <si>
-    <t>от</t>
   </si>
   <si>
     <t>Наименование профессии (должности) работника:</t>
@@ -266,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -376,15 +373,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -429,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -486,10 +474,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -497,50 +481,53 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -558,17 +545,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,7 +868,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G14"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,50 +883,50 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+    <row r="3" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -956,13 +934,11 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="24" t="s">
-        <v>45</v>
+      <c r="F4" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="21" t="s">
-        <v>1</v>
-      </c>
+      <c r="H4" s="21"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -985,35 +961,35 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="46" t="s">
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1021,18 +997,18 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="A8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1054,7 +1030,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1070,15 +1046,15 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="29"/>
+      <c r="A11" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1087,15 +1063,15 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="29"/>
+      <c r="A12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1104,15 +1080,15 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="50"/>
+      <c r="A13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1121,15 +1097,15 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="51"/>
+      <c r="A14" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1153,16 +1129,16 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="A16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1170,106 +1146,106 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="C17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="D17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="E17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="F17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="G17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="H17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="I17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="J17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="K17" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="L17" s="35"/>
+      <c r="M17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="30" t="s">
+    </row>
+    <row r="18" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="20" t="s">
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="31"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="I19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="M19" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1289,7 +1265,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1321,7 +1297,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1340,7 +1316,7 @@
       <c r="A24" s="8"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1373,16 +1349,16 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="8"/>
       <c r="H26" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="8"/>
@@ -1393,7 +1369,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1426,16 +1402,16 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="8"/>
       <c r="H29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="8"/>
@@ -1462,16 +1438,16 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="8"/>
       <c r="H31" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="8"/>
@@ -1494,7 +1470,7 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1533,11 +1509,11 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="8"/>
@@ -1567,11 +1543,11 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="8"/>
@@ -1601,11 +1577,11 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="8"/>
@@ -1635,11 +1611,11 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="8"/>
@@ -1669,11 +1645,11 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="8"/>
@@ -1756,13 +1732,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>

--- a/mapOPR.xlsx
+++ b/mapOPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1c_techno\Desktop\Модуль\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC71656-BA60-471C-8FC7-738967553158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF18297F-A792-4F55-BF3F-3F13E99CD523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA6316C-CE4F-432A-8F2E-D1F7A66B46CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA6316C-CE4F-432A-8F2E-D1F7A66B46CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>(полное наименование организации)</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Перечень расходных материалов, влияющих на здоровье</t>
+  </si>
+  <si>
+    <t>(дата)</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -490,6 +493,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,9 +572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -606,7 +612,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -712,7 +718,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -854,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -867,13 +873,16 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" customWidth="1"/>
@@ -883,34 +892,34 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,35 +970,35 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -997,16 +1006,16 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="4"/>
@@ -1046,14 +1055,14 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="26"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1063,14 +1072,14 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="26"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1080,14 +1089,14 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="27"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1097,14 +1106,14 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="28"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1129,16 +1138,16 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1146,66 +1155,66 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="32" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="29" t="s">
+      <c r="L17" s="36"/>
+      <c r="M17" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="32"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="32"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="30"/>
+      <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
@@ -1249,19 +1258,19 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1362,7 +1371,9 @@
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="11"/>
+      <c r="M26" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1415,7 +1426,9 @@
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="11"/>
+      <c r="M29" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1451,7 +1464,9 @@
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="11"/>
+      <c r="M31" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1517,7 +1532,9 @@
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="11"/>
+      <c r="M35" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -1551,7 +1568,9 @@
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="11"/>
+      <c r="M37" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -1585,7 +1604,9 @@
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="11"/>
+      <c r="M39" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -1619,7 +1640,9 @@
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="11"/>
+      <c r="M41" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -1653,7 +1676,9 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="11"/>
+      <c r="M43" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
